--- a/data/matriculaciones.xlsx
+++ b/data/matriculaciones.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.g.rivas_bl\Desktop\TRABAJO FIN MÁSTER\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Desktop\TFM\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0527D5-3707-48BD-B486-A452A4F21D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB22424-5804-4F2D-B2F3-75768F40FF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-2190" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matriculaciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +195,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,9 +549,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,10 +907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3782,7 +3804,7 @@
         <v>1.51</v>
       </c>
       <c r="F100">
-        <v>160441</v>
+        <v>160445</v>
       </c>
       <c r="G100">
         <v>837831</v>
@@ -3823,7 +3845,98 @@
         <v>20.71</v>
       </c>
     </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B102">
+        <v>12844</v>
+      </c>
+      <c r="C102">
+        <v>84977</v>
+      </c>
+      <c r="D102">
+        <v>97652</v>
+      </c>
+      <c r="E102">
+        <v>2.06</v>
+      </c>
+      <c r="F102">
+        <v>148756</v>
+      </c>
+      <c r="G102">
+        <v>817921</v>
+      </c>
+      <c r="H102">
+        <v>964361</v>
+      </c>
+      <c r="I102">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B103">
+        <v>12550</v>
+      </c>
+      <c r="C103">
+        <v>89252</v>
+      </c>
+      <c r="D103">
+        <v>101624</v>
+      </c>
+      <c r="E103">
+        <v>2.14</v>
+      </c>
+      <c r="F103">
+        <v>143970</v>
+      </c>
+      <c r="G103">
+        <v>810389</v>
+      </c>
+      <c r="H103">
+        <v>952211</v>
+      </c>
+      <c r="I103">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B104">
+        <v>13005</v>
+      </c>
+      <c r="C104">
+        <v>73378</v>
+      </c>
+      <c r="D104">
+        <v>86383</v>
+      </c>
+      <c r="E104">
+        <v>1.82</v>
+      </c>
+      <c r="F104">
+        <v>141867</v>
+      </c>
+      <c r="G104">
+        <v>799867</v>
+      </c>
+      <c r="H104">
+        <v>939560</v>
+      </c>
+      <c r="I104">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>